--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0943932567212</v>
+        <v>1.104136666666667</v>
       </c>
       <c r="N2">
-        <v>1.0943932567212</v>
+        <v>3.31241</v>
       </c>
       <c r="O2">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998524</v>
       </c>
       <c r="P2">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998525</v>
       </c>
       <c r="Q2">
-        <v>27.9592979471336</v>
+        <v>29.85464717310777</v>
       </c>
       <c r="R2">
-        <v>27.9592979471336</v>
+        <v>268.69182455797</v>
       </c>
       <c r="S2">
-        <v>0.01904649101487026</v>
+        <v>0.01967320539466541</v>
       </c>
       <c r="T2">
-        <v>0.01904649101487026</v>
+        <v>0.01967320539466542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.21120158385265</v>
+        <v>2.230986666666666</v>
       </c>
       <c r="N3">
-        <v>2.21120158385265</v>
+        <v>6.692959999999999</v>
       </c>
       <c r="O3">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="P3">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="Q3">
-        <v>56.49125076787614</v>
+        <v>60.3234380235911</v>
       </c>
       <c r="R3">
-        <v>56.49125076787614</v>
+        <v>542.9109422123199</v>
       </c>
       <c r="S3">
-        <v>0.03848308717205982</v>
+        <v>0.03975111075569746</v>
       </c>
       <c r="T3">
-        <v>0.03848308717205982</v>
+        <v>0.03975111075569747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.605029101401765</v>
+        <v>0.647533</v>
       </c>
       <c r="N4">
-        <v>0.605029101401765</v>
+        <v>1.942599</v>
       </c>
       <c r="O4">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="P4">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="Q4">
-        <v>15.45713920374411</v>
+        <v>17.50858370305367</v>
       </c>
       <c r="R4">
-        <v>15.45713920374411</v>
+        <v>157.577253327483</v>
       </c>
       <c r="S4">
-        <v>0.01052974447056506</v>
+        <v>0.01153756603997441</v>
       </c>
       <c r="T4">
-        <v>0.01052974447056506</v>
+        <v>0.01153756603997441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0943932567212</v>
+        <v>1.104136666666667</v>
       </c>
       <c r="N5">
-        <v>1.0943932567212</v>
+        <v>3.31241</v>
       </c>
       <c r="O5">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998524</v>
       </c>
       <c r="P5">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998525</v>
       </c>
       <c r="Q5">
-        <v>373.7322113019084</v>
+        <v>381.5527306484633</v>
       </c>
       <c r="R5">
-        <v>373.7322113019084</v>
+        <v>3433.97457583617</v>
       </c>
       <c r="S5">
-        <v>0.2545946331695771</v>
+        <v>0.2514303785075105</v>
       </c>
       <c r="T5">
-        <v>0.2545946331695771</v>
+        <v>0.2514303785075106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21120158385265</v>
+        <v>2.230986666666666</v>
       </c>
       <c r="N6">
-        <v>2.21120158385265</v>
+        <v>6.692959999999999</v>
       </c>
       <c r="O6">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="P6">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="Q6">
-        <v>755.1191059449851</v>
+        <v>770.9544301946132</v>
       </c>
       <c r="R6">
-        <v>755.1191059449851</v>
+        <v>6938.589871751518</v>
       </c>
       <c r="S6">
-        <v>0.5144038056224695</v>
+        <v>0.5080329627478567</v>
       </c>
       <c r="T6">
-        <v>0.5144038056224695</v>
+        <v>0.5080329627478567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.605029101401765</v>
+        <v>0.647533</v>
       </c>
       <c r="N7">
-        <v>0.605029101401765</v>
+        <v>1.942599</v>
       </c>
       <c r="O7">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="P7">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="Q7">
-        <v>206.6157321238801</v>
+        <v>223.765763599607</v>
       </c>
       <c r="R7">
-        <v>206.6157321238801</v>
+        <v>2013.891872396463</v>
       </c>
       <c r="S7">
-        <v>0.1407511981477264</v>
+        <v>0.1474540898796681</v>
       </c>
       <c r="T7">
-        <v>0.1407511981477264</v>
+        <v>0.1474540898796682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.0943932567212</v>
+        <v>1.104136666666667</v>
       </c>
       <c r="N8">
-        <v>1.0943932567212</v>
+        <v>3.31241</v>
       </c>
       <c r="O8">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998524</v>
       </c>
       <c r="P8">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998525</v>
       </c>
       <c r="Q8">
-        <v>9.116251619182609</v>
+        <v>9.306479415617778</v>
       </c>
       <c r="R8">
-        <v>9.116251619182609</v>
+        <v>83.75831474056001</v>
       </c>
       <c r="S8">
-        <v>0.006210191861125001</v>
+        <v>0.00613265599767647</v>
       </c>
       <c r="T8">
-        <v>0.006210191861125001</v>
+        <v>0.006132655997676473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.21120158385265</v>
+        <v>2.230986666666666</v>
       </c>
       <c r="N9">
-        <v>2.21120158385265</v>
+        <v>6.692959999999999</v>
       </c>
       <c r="O9">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="P9">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="Q9">
-        <v>18.41921986939943</v>
+        <v>18.80440358215111</v>
       </c>
       <c r="R9">
-        <v>18.41921986939943</v>
+        <v>169.23963223936</v>
       </c>
       <c r="S9">
-        <v>0.01254757921342593</v>
+        <v>0.0123914676281646</v>
       </c>
       <c r="T9">
-        <v>0.01254757921342593</v>
+        <v>0.01239146762816461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.605029101401765</v>
+        <v>0.647533</v>
       </c>
       <c r="N10">
-        <v>0.605029101401765</v>
+        <v>1.942599</v>
       </c>
       <c r="O10">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="P10">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="Q10">
-        <v>5.039867973813324</v>
+        <v>5.457886435042668</v>
       </c>
       <c r="R10">
-        <v>5.039867973813324</v>
+        <v>49.120977915384</v>
       </c>
       <c r="S10">
-        <v>0.003433269328181002</v>
+        <v>0.003596563048786326</v>
       </c>
       <c r="T10">
-        <v>0.003433269328181002</v>
+        <v>0.003596563048786328</v>
       </c>
     </row>
   </sheetData>
